--- a/Exemple.xlsx
+++ b/Exemple.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">Projet</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">sara S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad A.</t>
   </si>
 </sst>
 </file>
@@ -186,16 +192,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -307,6 +313,17 @@
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Exemple.xlsx
+++ b/Exemple.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Technical Lead</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolas P.</t>
+    <t xml:space="preserve">Nicolas P</t>
   </si>
   <si>
     <t xml:space="preserve">Booking With Point</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Functional Lead</t>
   </si>
   <si>
-    <t xml:space="preserve">Franck S.</t>
+    <t xml:space="preserve">Franck S</t>
   </si>
   <si>
     <t xml:space="preserve">Room</t>
@@ -55,16 +55,16 @@
     <t xml:space="preserve">Test Lead</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatima F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elien A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad S.</t>
+    <t xml:space="preserve">Fatima F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elien A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad S</t>
   </si>
   <si>
     <t xml:space="preserve">Autoumatisation</t>
@@ -73,16 +73,16 @@
     <t xml:space="preserve">QS</t>
   </si>
   <si>
-    <t xml:space="preserve">Stèphane T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sara S.</t>
+    <t xml:space="preserve">Stèphane T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sara S</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Ahmad A.</t>
+    <t xml:space="preserve">Ahmad A</t>
   </si>
 </sst>
 </file>
@@ -195,13 +195,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
